--- a/techniqo/data_new_ticker/ICICIPRULI.xlsx
+++ b/techniqo/data_new_ticker/ICICIPRULI.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G981"/>
+  <dimension ref="A1:G983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34721,6 +34721,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B982" t="n">
+        <v>432.65</v>
+      </c>
+      <c r="C982" t="n">
+        <v>436</v>
+      </c>
+      <c r="D982" t="n">
+        <v>424.75</v>
+      </c>
+      <c r="E982" t="n">
+        <v>427.4</v>
+      </c>
+      <c r="F982" t="n">
+        <v>1361796</v>
+      </c>
+      <c r="G982" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B983" t="n">
+        <v>426</v>
+      </c>
+      <c r="C983" t="n">
+        <v>437.85</v>
+      </c>
+      <c r="D983" t="n">
+        <v>425.2</v>
+      </c>
+      <c r="E983" t="n">
+        <v>434.85</v>
+      </c>
+      <c r="F983" t="n">
+        <v>1136111</v>
+      </c>
+      <c r="G983" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ICICIPRULI.xlsx
+++ b/techniqo/data_new_ticker/ICICIPRULI.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G983"/>
+  <dimension ref="A1:G985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34771,6 +34771,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B984" t="n">
+        <v>433.8</v>
+      </c>
+      <c r="C984" t="n">
+        <v>437.3</v>
+      </c>
+      <c r="D984" t="n">
+        <v>425.1</v>
+      </c>
+      <c r="E984" t="n">
+        <v>426.5</v>
+      </c>
+      <c r="F984" t="n">
+        <v>840918</v>
+      </c>
+      <c r="G984" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B985" t="n">
+        <v>427.2</v>
+      </c>
+      <c r="C985" t="n">
+        <v>430.6</v>
+      </c>
+      <c r="D985" t="n">
+        <v>417.65</v>
+      </c>
+      <c r="E985" t="n">
+        <v>421.75</v>
+      </c>
+      <c r="F985" t="n">
+        <v>1304148</v>
+      </c>
+      <c r="G985" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
